--- a/data/fact_data/Aurangabad/Aurangabad_sec_Mar_19.xlsx
+++ b/data/fact_data/Aurangabad/Aurangabad_sec_Mar_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Aurangabad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DDB0A2-9E67-1149-9816-D54C8B107D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A147D25-CBBD-2D4D-B9B8-2062778B23EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abad_Anil_Mar_19" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="91">
   <si>
     <t>Betadine Sol. 500ml              5%</t>
   </si>
@@ -308,10 +308,10 @@
     <t>Mar</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                 </t>
+    <t>Kishor</t>
   </si>
   <si>
-    <t>Kishor</t>
+    <t>sec</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1179,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1279,6 +1279,69 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="37" fontId="32" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="290" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="284" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="284" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="168" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="284" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="292" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="284" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="284" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="293" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="32" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="168" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="289" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="291" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="168" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="168" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="325" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="325" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="168" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="326">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -8214,8 +8277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF69DF1-D5BD-C64B-8631-4B6A1C8B16E7}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8266,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>83</v>
@@ -8288,11 +8351,11 @@
         <v>237</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E26" si="0">D3*B3</f>
+        <f>D3*B3</f>
         <v>0</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>83</v>
@@ -8314,11 +8377,11 @@
         <v>91</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>D4*B4</f>
         <v>0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>83</v>
@@ -8340,11 +8403,11 @@
         <v>344</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>D5*B5</f>
         <v>0</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>83</v>
@@ -8366,11 +8429,11 @@
         <v>130</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>D6*B6</f>
         <v>0</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>83</v>
@@ -8392,11 +8455,11 @@
         <v>244</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>D7*B7</f>
         <v>0</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>83</v>
@@ -8418,11 +8481,11 @@
         <v>88</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>D8*B8</f>
         <v>0</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>83</v>
@@ -8448,11 +8511,11 @@
         <v>57</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>D9*B9</f>
         <v>228</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>83</v>
@@ -8474,11 +8537,11 @@
         <v>63</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>D10*B10</f>
         <v>0</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>83</v>
@@ -8500,11 +8563,11 @@
         <v>50</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>D11*B11</f>
         <v>0</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>83</v>
@@ -8526,11 +8589,11 @@
         <v>223</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>D12*B12</f>
         <v>0</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>83</v>
@@ -8556,11 +8619,11 @@
         <v>61</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>D13*B13</f>
         <v>2562</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>83</v>
@@ -8582,11 +8645,11 @@
         <v>104</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>D14*B14</f>
         <v>0</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>83</v>
@@ -8608,11 +8671,11 @@
         <v>49</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>D15*B15</f>
         <v>0</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>83</v>
@@ -8631,11 +8694,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>D16*B16</f>
         <v>0</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>83</v>
@@ -8661,11 +8724,11 @@
         <v>70</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>D17*B17</f>
         <v>2870</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>83</v>
@@ -8691,11 +8754,11 @@
         <v>49</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>D18*B18</f>
         <v>441</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>83</v>
@@ -8717,11 +8780,11 @@
         <v>49</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>D19*B19</f>
         <v>0</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>83</v>
@@ -8743,11 +8806,11 @@
         <v>399</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>D20*B20</f>
         <v>0</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>83</v>
@@ -8769,11 +8832,11 @@
         <v>619</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>D21*B21</f>
         <v>0</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>83</v>
@@ -8792,11 +8855,11 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>D22*B22</f>
         <v>0</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>83</v>
@@ -8822,11 +8885,11 @@
         <v>638</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>D23*B23</f>
         <v>638</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>83</v>
@@ -8848,11 +8911,11 @@
         <v>68</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>D24*B24</f>
         <v>0</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>83</v>
@@ -8878,11 +8941,11 @@
         <v>240</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>D25*B25</f>
         <v>240</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="24" t="s">
         <v>83</v>
@@ -8908,11 +8971,11 @@
         <v>480</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>D26*B26</f>
         <v>480</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>83</v>
@@ -8931,11 +8994,11 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="E27">
-        <f t="shared" ref="E27:E70" si="1">D28*B27</f>
+        <f>D28*B27</f>
         <v>0</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>83</v>
@@ -8957,11 +9020,11 @@
         <v>830</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f>D29*B28</f>
         <v>0</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>83</v>
@@ -8983,11 +9046,11 @@
         <v>430</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f>D30*B29</f>
         <v>0</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>83</v>
@@ -9009,11 +9072,11 @@
         <v>360</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f>D31*B30</f>
         <v>0</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>83</v>
@@ -9035,11 +9098,11 @@
         <v>269</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f>D32*B31</f>
         <v>0</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>83</v>
@@ -9061,11 +9124,11 @@
         <v>633</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f>D33*B32</f>
         <v>0</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>83</v>
@@ -9087,11 +9150,11 @@
         <v>789</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f>D34*B33</f>
         <v>0</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>83</v>
@@ -9113,11 +9176,11 @@
         <v>865</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f>D35*B34</f>
         <v>0</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>83</v>
@@ -9139,11 +9202,11 @@
         <v>863</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f>D36*B35</f>
         <v>0</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>83</v>
@@ -9162,11 +9225,11 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f>D37*B36</f>
         <v>0</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>83</v>
@@ -9188,11 +9251,11 @@
         <v>1136</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f>D38*B37</f>
         <v>0</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>83</v>
@@ -9214,11 +9277,11 @@
         <v>1367</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f>D39*B38</f>
         <v>0</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G38" s="24" t="s">
         <v>83</v>
@@ -9240,11 +9303,11 @@
         <v>955</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f>D40*B39</f>
         <v>0</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>83</v>
@@ -9266,11 +9329,11 @@
         <v>168</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f>D41*B40</f>
         <v>0</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>83</v>
@@ -9292,11 +9355,11 @@
         <v>1287</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f>D42*B41</f>
         <v>0</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>83</v>
@@ -9318,11 +9381,11 @@
         <v>1358</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f>D43*B42</f>
         <v>0</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>83</v>
@@ -9344,11 +9407,11 @@
         <v>1270</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f>D44*B43</f>
         <v>0</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>83</v>
@@ -9370,11 +9433,11 @@
         <v>1184</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f>D45*B44</f>
         <v>0</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>83</v>
@@ -9396,11 +9459,11 @@
         <v>755</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f>D46*B45</f>
         <v>0</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>83</v>
@@ -9419,11 +9482,11 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f>D47*B46</f>
         <v>0</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>83</v>
@@ -9442,11 +9505,11 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f>D48*B47</f>
         <v>0</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G47" s="24" t="s">
         <v>83</v>
@@ -9468,11 +9531,11 @@
         <v>984</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f>D49*B48</f>
         <v>0</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>83</v>
@@ -9494,11 +9557,11 @@
         <v>157</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f>D50*B49</f>
         <v>0</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G49" s="24" t="s">
         <v>83</v>
@@ -9520,11 +9583,11 @@
         <v>223</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f>D51*B50</f>
         <v>0</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G50" s="24" t="s">
         <v>83</v>
@@ -9543,11 +9606,11 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f>D52*B51</f>
         <v>0</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G51" s="24" t="s">
         <v>83</v>
@@ -9569,11 +9632,11 @@
         <v>484</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f>D53*B52</f>
         <v>0</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>83</v>
@@ -9593,11 +9656,11 @@
       <c r="C53" s="2"/>
       <c r="D53" s="26"/>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f>D54*B53</f>
         <v>0</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>83</v>
@@ -9619,11 +9682,11 @@
         <v>769</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f>D55*B54</f>
         <v>0</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>83</v>
@@ -9643,11 +9706,11 @@
       <c r="C55" s="2"/>
       <c r="D55" s="26"/>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f>D56*B55</f>
         <v>0</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G55" s="24" t="s">
         <v>83</v>
@@ -9669,11 +9732,11 @@
         <v>155</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f>D57*B56</f>
         <v>0</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G56" s="24" t="s">
         <v>83</v>
@@ -9693,11 +9756,11 @@
       <c r="C57" s="2"/>
       <c r="D57" s="26"/>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f>D58*B57</f>
         <v>0</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G57" s="24" t="s">
         <v>83</v>
@@ -9719,11 +9782,11 @@
         <v>98</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f>D59*B58</f>
         <v>0</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G58" s="24" t="s">
         <v>83</v>
@@ -9745,11 +9808,11 @@
         <v>59</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f>D60*B59</f>
         <v>0</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G59" s="24" t="s">
         <v>83</v>
@@ -9771,11 +9834,11 @@
         <v>112</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f>D61*B60</f>
         <v>0</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G60" s="24" t="s">
         <v>83</v>
@@ -9797,11 +9860,11 @@
         <v>225</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f>D62*B61</f>
         <v>0</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G61" s="24" t="s">
         <v>83</v>
@@ -9823,11 +9886,11 @@
         <v>80</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f>D63*B62</f>
         <v>0</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G62" s="24" t="s">
         <v>83</v>
@@ -9849,11 +9912,11 @@
         <v>80</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f>D64*B63</f>
         <v>0</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G63" s="24" t="s">
         <v>83</v>
@@ -9875,11 +9938,11 @@
         <v>80</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f>D65*B64</f>
         <v>0</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G64" s="24" t="s">
         <v>83</v>
@@ -9901,11 +9964,11 @@
         <v>125</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f>D66*B65</f>
         <v>0</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G65" s="24" t="s">
         <v>83</v>
@@ -9927,11 +9990,11 @@
         <v>127</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f>D67*B66</f>
         <v>0</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G66" s="24" t="s">
         <v>83</v>
@@ -9950,11 +10013,11 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f>D68*B67</f>
         <v>0</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G67" s="24" t="s">
         <v>83</v>
@@ -9976,11 +10039,11 @@
         <v>30</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f>D69*B68</f>
         <v>0</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G68" s="24" t="s">
         <v>83</v>
@@ -10002,11 +10065,11 @@
         <v>345</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f>D70*B69</f>
         <v>0</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G69" s="24" t="s">
         <v>83</v>
@@ -10028,11 +10091,11 @@
         <v>48</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f>D71*B70</f>
         <v>0</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G70" s="24" t="s">
         <v>83</v>
@@ -10058,7 +10121,7 @@
         <v>#REF!</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G71" s="24" t="s">
         <v>83</v>
@@ -10075,11 +10138,11 @@
         <v>42</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72" si="2">D72*B72</f>
+        <f>D72*B72</f>
         <v>0</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G72" s="24" t="s">
         <v>83</v>
@@ -10102,7 +10165,7 @@
         <v>19065</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G73" s="24" t="s">
         <v>83</v>
@@ -16433,13 +16496,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9EAFA3-E02B-4F4D-8A66-959CE6DDEAF3}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="63" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" customWidth="1"/>
   </cols>
@@ -16448,8 +16512,8 @@
       <c r="A1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
+      <c r="B1" s="43" t="s">
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>67</v>
@@ -16479,14 +16543,14 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2"/>
       <c r="D2">
         <v>135</v>
       </c>
-      <c r="E2">
-        <f>D2*B2</f>
-        <v>0</v>
+      <c r="E2" t="e">
+        <f>D2*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>65</v>
@@ -16506,14 +16570,14 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="2"/>
       <c r="D3">
         <v>237</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E26" si="0">D3*B3</f>
-        <v>0</v>
+      <c r="E3" t="e">
+        <f>D3*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>65</v>
@@ -16533,14 +16597,14 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="2"/>
       <c r="D4">
         <v>91</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E4" t="e">
+        <f>D4*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>65</v>
@@ -16560,14 +16624,14 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="2"/>
       <c r="D5">
         <v>344</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E5" t="e">
+        <f>D5*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>65</v>
@@ -16587,14 +16651,14 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="2"/>
       <c r="D6">
         <v>130</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E6" t="e">
+        <f>D6*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>65</v>
@@ -16614,14 +16678,14 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="2"/>
       <c r="D7">
         <v>244</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E7" t="e">
+        <f>D7*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>65</v>
@@ -16641,7 +16705,7 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="44">
         <v>4</v>
       </c>
       <c r="C8" s="2">
@@ -16650,9 +16714,9 @@
       <c r="D8">
         <v>88</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>352</v>
+      <c r="E8" t="e">
+        <f>D8*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>65</v>
@@ -16672,7 +16736,7 @@
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="45">
         <v>9</v>
       </c>
       <c r="C9" s="2">
@@ -16681,9 +16745,9 @@
       <c r="D9">
         <v>57</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>513</v>
+      <c r="E9" t="e">
+        <f>D9*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>65</v>
@@ -16703,14 +16767,14 @@
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="2"/>
       <c r="D10">
         <v>63</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E10" t="e">
+        <f>D10*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>65</v>
@@ -16731,14 +16795,14 @@
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="2"/>
       <c r="D11">
         <v>50</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E11" t="e">
+        <f>D11*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>65</v>
@@ -16759,14 +16823,14 @@
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="2"/>
       <c r="D12">
         <v>223</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E12" t="e">
+        <f>D12*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>65</v>
@@ -16786,7 +16850,7 @@
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="47">
         <v>95</v>
       </c>
       <c r="C13" s="2">
@@ -16795,9 +16859,9 @@
       <c r="D13">
         <v>61</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>5795</v>
+      <c r="E13" t="e">
+        <f>D13*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>65</v>
@@ -16817,7 +16881,7 @@
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="47">
         <v>60</v>
       </c>
       <c r="C14" s="2">
@@ -16826,9 +16890,9 @@
       <c r="D14">
         <v>104</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>6240</v>
+      <c r="E14" t="e">
+        <f>D14*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>65</v>
@@ -16848,16 +16912,16 @@
       <c r="A15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15">
         <v>49</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E15" t="e">
+        <f>D15*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>65</v>
@@ -16877,11 +16941,11 @@
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="2"/>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E16" t="e">
+        <f>D16*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>65</v>
@@ -16901,7 +16965,7 @@
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="44">
         <v>219</v>
       </c>
       <c r="C17" s="2">
@@ -16910,9 +16974,9 @@
       <c r="D17">
         <v>70</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>15330</v>
+      <c r="E17" t="e">
+        <f>D17*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>65</v>
@@ -16932,7 +16996,7 @@
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="44">
         <v>31</v>
       </c>
       <c r="C18" s="2">
@@ -16941,9 +17005,9 @@
       <c r="D18">
         <v>49</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>1519</v>
+      <c r="E18" t="e">
+        <f>D18*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>65</v>
@@ -16963,14 +17027,14 @@
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="2"/>
       <c r="D19">
         <v>49</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E19" t="e">
+        <f>D19*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>65</v>
@@ -16990,14 +17054,14 @@
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="2"/>
       <c r="D20">
         <v>399</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E20" t="e">
+        <f>D20*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>65</v>
@@ -17017,16 +17081,16 @@
       <c r="A21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21">
         <v>619</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E21" t="e">
+        <f>D21*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>65</v>
@@ -17046,11 +17110,11 @@
       <c r="A22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="2"/>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E22" t="e">
+        <f>D22*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>65</v>
@@ -17070,7 +17134,7 @@
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="45">
         <v>5</v>
       </c>
       <c r="C23" s="2">
@@ -17079,9 +17143,9 @@
       <c r="D23">
         <v>638</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>3190</v>
+      <c r="E23" t="e">
+        <f>D23*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>65</v>
@@ -17101,14 +17165,14 @@
       <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="2"/>
       <c r="D24">
         <v>68</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E24" t="e">
+        <f>D24*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>65</v>
@@ -17128,7 +17192,7 @@
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="45">
         <v>4</v>
       </c>
       <c r="C25" s="2">
@@ -17137,9 +17201,9 @@
       <c r="D25">
         <v>240</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>960</v>
+      <c r="E25" t="e">
+        <f>D25*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>65</v>
@@ -17159,7 +17223,7 @@
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="45">
         <v>3</v>
       </c>
       <c r="C26" s="2">
@@ -17168,9 +17232,9 @@
       <c r="D26">
         <v>480</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>1440</v>
+      <c r="E26" t="e">
+        <f>D26*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>65</v>
@@ -17190,11 +17254,11 @@
       <c r="A27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="2"/>
-      <c r="E27">
-        <f t="shared" ref="E27:E70" si="1">D28*B27</f>
-        <v>0</v>
+      <c r="E27" t="e">
+        <f>D28*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>65</v>
@@ -17214,14 +17278,14 @@
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="2"/>
       <c r="D28">
         <v>830</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E28" t="e">
+        <f>D29*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>65</v>
@@ -17241,14 +17305,14 @@
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="2"/>
       <c r="D29">
         <v>430</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E29" t="e">
+        <f>D30*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>65</v>
@@ -17268,14 +17332,14 @@
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="2"/>
       <c r="D30">
         <v>360</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E30" t="e">
+        <f>D31*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>65</v>
@@ -17295,14 +17359,14 @@
       <c r="A31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="2"/>
       <c r="D31">
         <v>269</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E31" t="e">
+        <f>D32*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>65</v>
@@ -17322,7 +17386,7 @@
       <c r="A32" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="52">
         <v>1</v>
       </c>
       <c r="C32" s="2">
@@ -17331,9 +17395,9 @@
       <c r="D32">
         <v>633</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>789</v>
+      <c r="E32" t="e">
+        <f>D33*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>65</v>
@@ -17353,14 +17417,14 @@
       <c r="A33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="2"/>
       <c r="D33">
         <v>789</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E33" t="e">
+        <f>D34*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>65</v>
@@ -17380,14 +17444,14 @@
       <c r="A34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="2"/>
       <c r="D34">
         <v>865</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E34" t="e">
+        <f>D35*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>65</v>
@@ -17407,14 +17471,14 @@
       <c r="A35" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="2"/>
       <c r="D35">
         <v>863</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E35" t="e">
+        <f>D36*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>65</v>
@@ -17434,15 +17498,15 @@
       <c r="A36" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="53">
         <v>1</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>1136</v>
+      <c r="E36" t="e">
+        <f>D37*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>65</v>
@@ -17462,16 +17526,16 @@
       <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37">
         <v>1136</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E37" t="e">
+        <f>D38*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>65</v>
@@ -17491,16 +17555,16 @@
       <c r="A38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="2">
         <v>2</v>
       </c>
       <c r="D38">
         <v>1367</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E38" t="e">
+        <f>D39*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>65</v>
@@ -17520,7 +17584,7 @@
       <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="45">
         <v>1</v>
       </c>
       <c r="C39" s="2">
@@ -17529,9 +17593,9 @@
       <c r="D39">
         <v>955</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>168</v>
+      <c r="E39" t="e">
+        <f>D40*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>65</v>
@@ -17551,14 +17615,14 @@
       <c r="A40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="2"/>
       <c r="D40">
         <v>168</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E40" t="e">
+        <f>D41*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>65</v>
@@ -17578,16 +17642,16 @@
       <c r="A41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="2">
         <v>4</v>
       </c>
       <c r="D41">
         <v>1287</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E41" t="e">
+        <f>D42*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>65</v>
@@ -17607,16 +17671,16 @@
       <c r="A42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="2">
         <v>5</v>
       </c>
       <c r="D42">
         <v>1358</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E42" t="e">
+        <f>D43*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>65</v>
@@ -17636,14 +17700,14 @@
       <c r="A43" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="2"/>
       <c r="D43">
         <v>1270</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E43" t="e">
+        <f>D44*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>65</v>
@@ -17663,14 +17727,14 @@
       <c r="A44" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="2"/>
       <c r="D44">
         <v>1184</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E44" t="e">
+        <f>D45*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F44" s="24" t="s">
         <v>65</v>
@@ -17690,14 +17754,14 @@
       <c r="A45" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="2"/>
       <c r="D45">
         <v>755</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E45" t="e">
+        <f>D46*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>65</v>
@@ -17717,11 +17781,11 @@
       <c r="A46" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="2"/>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E46" t="e">
+        <f>D47*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>65</v>
@@ -17741,15 +17805,15 @@
       <c r="A47" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="45">
         <v>3</v>
       </c>
       <c r="C47" s="2">
         <v>2</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>2952</v>
+      <c r="E47" t="e">
+        <f>D48*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>65</v>
@@ -17769,16 +17833,16 @@
       <c r="A48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="2">
         <v>2</v>
       </c>
       <c r="D48">
         <v>984</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E48" t="e">
+        <f>D49*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>65</v>
@@ -17798,14 +17862,14 @@
       <c r="A49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="2"/>
       <c r="D49">
         <v>157</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E49" t="e">
+        <f>D50*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>65</v>
@@ -17825,14 +17889,14 @@
       <c r="A50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="2"/>
       <c r="D50">
         <v>223</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E50" t="e">
+        <f>D51*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F50" s="24" t="s">
         <v>65</v>
@@ -17852,11 +17916,11 @@
       <c r="A51" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="2"/>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E51" t="e">
+        <f>D52*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>65</v>
@@ -17876,14 +17940,14 @@
       <c r="A52" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="2"/>
       <c r="D52">
         <v>484</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E52" t="e">
+        <f>D53*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F52" s="24" t="s">
         <v>65</v>
@@ -17904,11 +17968,11 @@
       <c r="A53" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="2"/>
-      <c r="E53">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E53" t="e">
+        <f>D54*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F53" s="24" t="s">
         <v>65</v>
@@ -17928,14 +17992,14 @@
       <c r="A54" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="2"/>
       <c r="D54">
         <v>769</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E54" t="e">
+        <f>D55*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F54" s="24" t="s">
         <v>65</v>
@@ -17956,13 +18020,13 @@
       <c r="A55" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="2">
         <v>1</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E55" t="e">
+        <f>D56*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F55" s="24" t="s">
         <v>65</v>
@@ -17982,14 +18046,14 @@
       <c r="A56" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="2"/>
       <c r="D56">
         <v>155</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E56" t="e">
+        <f>D57*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F56" s="24" t="s">
         <v>65</v>
@@ -18010,13 +18074,11 @@
       <c r="A57" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="B57" s="57"/>
       <c r="C57" s="2"/>
       <c r="E57" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <f>D58*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F57" s="24" t="s">
         <v>65</v>
@@ -18036,14 +18098,14 @@
       <c r="A58" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="2"/>
       <c r="D58">
         <v>98</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E58" t="e">
+        <f>D59*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F58" s="24" t="s">
         <v>65</v>
@@ -18063,14 +18125,14 @@
       <c r="A59" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="2"/>
       <c r="D59">
         <v>59</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E59" t="e">
+        <f>D60*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F59" s="24" t="s">
         <v>65</v>
@@ -18091,14 +18153,14 @@
       <c r="A60" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="58"/>
       <c r="C60" s="2"/>
       <c r="D60">
         <v>112</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E60" t="e">
+        <f>D61*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F60" s="24" t="s">
         <v>65</v>
@@ -18119,14 +18181,14 @@
       <c r="A61" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="2"/>
       <c r="D61">
         <v>225</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E61" t="e">
+        <f>D62*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F61" s="24" t="s">
         <v>65</v>
@@ -18147,14 +18209,14 @@
       <c r="A62" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="2"/>
       <c r="D62">
         <v>80</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E62" t="e">
+        <f>D63*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F62" s="24" t="s">
         <v>65</v>
@@ -18175,14 +18237,14 @@
       <c r="A63" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="2"/>
       <c r="D63">
         <v>80</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E63" t="e">
+        <f>D64*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F63" s="24" t="s">
         <v>65</v>
@@ -18203,14 +18265,14 @@
       <c r="A64" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="2"/>
       <c r="D64">
         <v>80</v>
       </c>
-      <c r="E64">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E64" t="e">
+        <f>D65*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F64" s="24" t="s">
         <v>65</v>
@@ -18231,14 +18293,14 @@
       <c r="A65" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="2"/>
       <c r="D65">
         <v>125</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E65" t="e">
+        <f>D66*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F65" s="24" t="s">
         <v>65</v>
@@ -18259,14 +18321,14 @@
       <c r="A66" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="2"/>
       <c r="D66">
         <v>127</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E66" t="e">
+        <f>D67*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F66" s="24" t="s">
         <v>65</v>
@@ -18286,13 +18348,13 @@
       <c r="A67" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="2">
         <v>5</v>
       </c>
-      <c r="E67">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E67" t="e">
+        <f>D68*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F67" s="24" t="s">
         <v>65</v>
@@ -18313,14 +18375,14 @@
       <c r="A68" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="2"/>
       <c r="D68">
         <v>30</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E68" t="e">
+        <f>D69*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F68" s="24" t="s">
         <v>65</v>
@@ -18341,16 +18403,16 @@
       <c r="A69" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="2">
         <v>30</v>
       </c>
       <c r="D69">
         <v>345</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E69" t="e">
+        <f>D70*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F69" s="24" t="s">
         <v>65</v>
@@ -18370,7 +18432,7 @@
       <c r="A70" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="61">
         <v>4</v>
       </c>
       <c r="C70" s="2">
@@ -18379,9 +18441,9 @@
       <c r="D70">
         <v>48</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="1"/>
-        <v>680</v>
+      <c r="E70" t="e">
+        <f>D71*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F70" s="24" t="s">
         <v>65</v>
@@ -18401,7 +18463,7 @@
       <c r="A71" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="48">
         <v>7</v>
       </c>
       <c r="C71" s="2">
@@ -18410,9 +18472,9 @@
       <c r="D71">
         <v>170</v>
       </c>
-      <c r="E71">
-        <f>D71*B71</f>
-        <v>1190</v>
+      <c r="E71" t="e">
+        <f>D71*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F71" s="24" t="s">
         <v>65</v>
@@ -18432,9 +18494,10 @@
       <c r="A72" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E72">
-        <f t="shared" ref="E72" si="2">D72*B72</f>
-        <v>0</v>
+      <c r="B72" s="57"/>
+      <c r="E72" t="e">
+        <f>D72*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F72" s="24" t="s">
         <v>65</v>
@@ -18454,9 +18517,7 @@
       <c r="A73" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B73">
-        <v>33172</v>
-      </c>
+      <c r="B73" s="62"/>
       <c r="C73">
         <v>44102</v>
       </c>
